--- a/src/test/java/ApachePOI/Resource/LoginData.xlsx
+++ b/src/test/java/ApachePOI/Resource/LoginData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProjeler\CucumberTechnoEveninng-master\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funda\IdeaProjects\Cucumber_Turkey\src\test\java\ApachePOI\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A458F-0877-4A33-8B32-5FC4C0332CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="3480" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -34,24 +35,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>MyPasswordIsHere</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>123 main</t>
-  </si>
-  <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -73,22 +56,28 @@
     <t>IC</t>
   </si>
   <si>
-    <t>ismet123</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Berkshire</t>
-  </si>
-  <si>
-    <t>21A London</t>
+    <t>richfield.edu</t>
+  </si>
+  <si>
+    <t>Richfield2020!</t>
+  </si>
+  <si>
+    <t>invalidUsername</t>
+  </si>
+  <si>
+    <t>invalidPassword</t>
+  </si>
+  <si>
+    <t>richfield</t>
+  </si>
+  <si>
+    <t>Richfield20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,9 +107,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,73 +388,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -476,56 +442,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
     </row>
@@ -536,12 +502,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
